--- a/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E8A0C1-911E-4BA0-8E24-85E4465016EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC11D47-4826-4BB7-A2C8-A164052233B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{835EFDC3-59E4-49DD-A58A-9221364A697E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98F77B1C-20BC-4A62-9988-A4A454D58F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="290">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -191,7 +191,7 @@
     <t>7,2%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>29,21%</t>
   </si>
   <si>
     <t>9,12%</t>
@@ -206,19 +206,19 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>83,55%</t>
@@ -233,10 +233,10 @@
     <t>79,15%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -248,19 +248,19 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>31,64%</t>
+    <t>32,15%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>11,77%</t>
+    <t>11,7%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>43,31%</t>
+    <t>44,51%</t>
   </si>
   <si>
     <t>7,33%</t>
@@ -272,10 +272,10 @@
     <t>10,11%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -287,592 +287,589 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>22,55%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -881,37 +878,31 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1326,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE095F86-737C-41F6-8223-92A8A61FF7F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BDD3C4-5995-4320-8AA8-EB89F5C0522C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3182,13 +3173,13 @@
         <v>1274</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3197,13 +3188,13 @@
         <v>1207</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3212,13 +3203,13 @@
         <v>2481</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3265,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3292,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3301,13 +3292,13 @@
         <v>7206</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -3316,13 +3307,13 @@
         <v>7206</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3328,13 @@
         <v>14637</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3352,13 +3343,13 @@
         <v>22984</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M41" s="7">
         <v>53</v>
@@ -3367,13 +3358,13 @@
         <v>37621</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3403,13 +3394,13 @@
         <v>623</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3418,13 +3409,13 @@
         <v>623</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3430,13 @@
         <v>860</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3460,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3469,13 +3460,13 @@
         <v>860</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3481,13 @@
         <v>6271</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3505,13 +3496,13 @@
         <v>2023</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -3520,13 +3511,13 @@
         <v>8293</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3573,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3615,7 +3606,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3630,7 +3621,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3636,13 @@
         <v>1696</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H47" s="7">
         <v>11</v>
@@ -3660,13 +3651,13 @@
         <v>7367</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -3675,13 +3666,13 @@
         <v>9063</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3687,13 @@
         <v>709</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
@@ -3714,10 +3705,10 @@
         <v>38</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -3729,10 +3720,10 @@
         <v>112</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3738,13 @@
         <v>3784</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
@@ -3762,13 +3753,13 @@
         <v>17196</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M49" s="7">
         <v>31</v>
@@ -3777,13 +3768,13 @@
         <v>20980</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3789,13 @@
         <v>7593</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -3813,13 +3804,13 @@
         <v>10456</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M50" s="7">
         <v>23</v>
@@ -3828,13 +3819,13 @@
         <v>18049</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,10 +3911,10 @@
         <v>251</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M52" s="7">
         <v>31</v>
@@ -3932,13 +3923,13 @@
         <v>17112</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3944,13 @@
         <v>36835</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H53" s="7">
         <v>158</v>
@@ -3968,13 +3959,13 @@
         <v>85786</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M53" s="7">
         <v>213</v>
@@ -3983,13 +3974,13 @@
         <v>122621</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3995,13 @@
         <v>709</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H54" s="7">
         <v>8</v>
@@ -4019,13 +4010,13 @@
         <v>4758</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M54" s="7">
         <v>9</v>
@@ -4034,13 +4025,13 @@
         <v>5467</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4046,13 @@
         <v>7479</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H55" s="7">
         <v>35</v>
@@ -4070,13 +4061,13 @@
         <v>22092</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
@@ -4085,13 +4076,13 @@
         <v>29572</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4097,13 @@
         <v>25273</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H56" s="7">
         <v>37</v>
@@ -4121,13 +4112,13 @@
         <v>22410</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M56" s="7">
         <v>74</v>
@@ -4136,13 +4127,13 @@
         <v>47683</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4189,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC11D47-4826-4BB7-A2C8-A164052233B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D585BB-446A-4D53-A80D-4C285A61B986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98F77B1C-20BC-4A62-9988-A4A454D58F1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47A23DF4-24B1-4F8D-9420-C2126FB79576}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BDD3C4-5995-4320-8AA8-EB89F5C0522C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C5717-7141-4681-800A-197A0EAEA81C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D585BB-446A-4D53-A80D-4C285A61B986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAB74E4-19EE-4A3A-B9FD-F193829D87B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47A23DF4-24B1-4F8D-9420-C2126FB79576}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92764C35-FB35-492B-BCE5-E7FD1BD04515}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -191,7 +191,7 @@
     <t>7,2%</t>
   </si>
   <si>
-    <t>29,21%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>9,12%</t>
@@ -206,19 +206,19 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>83,55%</t>
@@ -233,10 +233,10 @@
     <t>79,15%</t>
   </si>
   <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -248,19 +248,19 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>11,7%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>44,51%</t>
+    <t>43,31%</t>
   </si>
   <si>
     <t>7,33%</t>
@@ -272,10 +272,10 @@
     <t>10,11%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -287,622 +287,631 @@
     <t>2,27%</t>
   </si>
   <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>21,44%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>26,24%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1317,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C5717-7141-4681-800A-197A0EAEA81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47275B3-E680-4B90-BB1D-43AB2591C3D7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3173,13 +3182,13 @@
         <v>1274</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3188,13 +3197,13 @@
         <v>1207</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3203,13 +3212,13 @@
         <v>2481</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3274,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3283,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3292,13 +3301,13 @@
         <v>7206</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -3307,13 +3316,13 @@
         <v>7206</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3337,13 @@
         <v>14637</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3343,13 +3352,13 @@
         <v>22984</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M41" s="7">
         <v>53</v>
@@ -3358,13 +3367,13 @@
         <v>37621</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3394,13 +3403,13 @@
         <v>623</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3409,13 +3418,13 @@
         <v>623</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3439,13 @@
         <v>860</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3451,7 +3460,7 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3460,13 +3469,13 @@
         <v>860</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3490,13 @@
         <v>6271</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3496,13 +3505,13 @@
         <v>2023</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -3511,13 +3520,13 @@
         <v>8293</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3582,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3606,7 +3615,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3621,7 +3630,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3645,13 @@
         <v>1696</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H47" s="7">
         <v>11</v>
@@ -3651,13 +3660,13 @@
         <v>7367</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -3666,13 +3675,13 @@
         <v>9063</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3696,13 @@
         <v>709</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
@@ -3705,10 +3714,10 @@
         <v>38</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -3720,10 +3729,10 @@
         <v>112</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3747,13 @@
         <v>3784</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
@@ -3753,13 +3762,13 @@
         <v>17196</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M49" s="7">
         <v>31</v>
@@ -3768,13 +3777,13 @@
         <v>20980</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3798,13 @@
         <v>7593</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
@@ -3804,13 +3813,13 @@
         <v>10456</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M50" s="7">
         <v>23</v>
@@ -3819,13 +3828,13 @@
         <v>18049</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,10 +3920,10 @@
         <v>251</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M52" s="7">
         <v>31</v>
@@ -3923,13 +3932,13 @@
         <v>17112</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3953,13 @@
         <v>36835</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H53" s="7">
         <v>158</v>
@@ -3959,13 +3968,13 @@
         <v>85786</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M53" s="7">
         <v>213</v>
@@ -3974,13 +3983,13 @@
         <v>122621</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4004,13 @@
         <v>709</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H54" s="7">
         <v>8</v>
@@ -4010,13 +4019,13 @@
         <v>4758</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M54" s="7">
         <v>9</v>
@@ -4025,13 +4034,13 @@
         <v>5467</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4055,13 @@
         <v>7479</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H55" s="7">
         <v>35</v>
@@ -4061,13 +4070,13 @@
         <v>22092</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
@@ -4076,13 +4085,13 @@
         <v>29572</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4106,13 @@
         <v>25273</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H56" s="7">
         <v>37</v>
@@ -4112,13 +4121,13 @@
         <v>22410</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M56" s="7">
         <v>74</v>
@@ -4127,13 +4136,13 @@
         <v>47683</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4198,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAB74E4-19EE-4A3A-B9FD-F193829D87B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10B38D3-A679-40D9-97A6-649DDA7F7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92764C35-FB35-492B-BCE5-E7FD1BD04515}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B5E6A307-262D-4BD8-8C77-767FF67BA43B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="294">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -110,43 +110,43 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -155,763 +155,766 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1326,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47275B3-E680-4B90-BB1D-43AB2591C3D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7848CF51-C5F2-437A-AA79-D37C9D803B52}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1509,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1524,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1705,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -1720,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>3289</v>
+        <v>3335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -1758,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2751</v>
+        <v>2431</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>24</v>
@@ -1773,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2751</v>
+        <v>2431</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>27</v>
@@ -1794,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2076</v>
+        <v>1897</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>30</v>
@@ -1809,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>13487</v>
+        <v>12139</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1824,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>15563</v>
+        <v>14036</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>34</v>
@@ -1911,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1289</v>
+        <v>1171</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>39</v>
@@ -1926,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1289</v>
+        <v>1171</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -1947,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>888</v>
+        <v>818</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
@@ -1962,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1167</v>
+        <v>1065</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>44</v>
@@ -1977,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2056</v>
+        <v>1883</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>46</v>
@@ -1998,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2964</v>
+        <v>2715</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -2013,7 +2016,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>18694</v>
+        <v>16806</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -2028,7 +2031,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>21658</v>
+        <v>19521</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -2051,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>50</v>
@@ -2066,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1453</v>
+        <v>1339</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>52</v>
@@ -2081,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2119</v>
+        <v>1972</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>55</v>
@@ -2102,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>6621</v>
+        <v>6260</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>58</v>
@@ -2117,7 +2120,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>13300</v>
+        <v>12148</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
@@ -2132,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>19921</v>
+        <v>18408</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
@@ -2204,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>69</v>
@@ -2234,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>71</v>
@@ -2255,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1378</v>
+        <v>1299</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>73</v>
@@ -2270,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1167</v>
+        <v>1073</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>75</v>
@@ -2285,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2545</v>
+        <v>2372</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>77</v>
@@ -2306,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>9249</v>
+        <v>8740</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -2321,7 +2324,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>15920</v>
+        <v>14560</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -2336,7 +2339,7 @@
         <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>25168</v>
+        <v>23300</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>82</v>
@@ -2389,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>84</v>
@@ -2410,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>2038</v>
+        <v>1886</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>86</v>
@@ -2425,7 +2428,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>12540</v>
+        <v>11727</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>89</v>
@@ -2440,7 +2443,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="7">
-        <v>14578</v>
+        <v>13613</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>92</v>
@@ -2527,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>97</v>
@@ -2542,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>99</v>
@@ -2563,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>6804</v>
+        <v>6440</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>101</v>
@@ -2578,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>5606</v>
+        <v>5187</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>104</v>
@@ -2593,7 +2596,7 @@
         <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>12411</v>
+        <v>11626</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>107</v>
@@ -2614,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="7">
-        <v>8842</v>
+        <v>8326</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>18</v>
@@ -2629,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="I27" s="7">
-        <v>19024</v>
+        <v>17730</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>18</v>
@@ -2644,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="N27" s="7">
-        <v>27866</v>
+        <v>26056</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>18</v>
@@ -2718,7 +2721,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>2141</v>
+        <v>1935</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>113</v>
@@ -2733,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>10077</v>
+        <v>8985</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>116</v>
@@ -2748,7 +2751,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="7">
-        <v>12218</v>
+        <v>10920</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>119</v>
@@ -2784,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>122</v>
@@ -2799,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,46 +2823,46 @@
         <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>2252</v>
+        <v>2017</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>2850</v>
+        <v>2503</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
       </c>
       <c r="N31" s="7">
-        <v>5102</v>
+        <v>4520</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,46 +2874,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1064</v>
+        <v>977</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>784</v>
+        <v>712</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>1848</v>
+        <v>1689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="7">
-        <v>5457</v>
+        <v>4929</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>18</v>
@@ -2937,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="I33" s="7">
-        <v>14210</v>
+        <v>12634</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>18</v>
@@ -2952,7 +2955,7 @@
         <v>43</v>
       </c>
       <c r="N33" s="7">
-        <v>19667</v>
+        <v>17563</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>18</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2975,46 +2978,46 @@
         <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>1932</v>
+        <v>1845</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
       </c>
       <c r="I34" s="7">
-        <v>2674</v>
+        <v>2503</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
       </c>
       <c r="N34" s="7">
-        <v>4606</v>
+        <v>4348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,46 +3029,46 @@
         <v>16</v>
       </c>
       <c r="D35" s="7">
-        <v>7627</v>
+        <v>7205</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>2743</v>
+        <v>2549</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>10370</v>
+        <v>9753</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,37 +3089,37 @@
         <v>13</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>1490</v>
+        <v>1335</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>1490</v>
+        <v>1335</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,37 +3140,37 @@
         <v>13</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,46 +3182,46 @@
         <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>1274</v>
+        <v>1211</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>1207</v>
+        <v>1123</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>2481</v>
+        <v>2334</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3233,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="7">
-        <v>10833</v>
+        <v>10261</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>18</v>
@@ -3245,7 +3248,7 @@
         <v>21</v>
       </c>
       <c r="I39" s="7">
-        <v>8425</v>
+        <v>7807</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>18</v>
@@ -3260,7 +3263,7 @@
         <v>45</v>
       </c>
       <c r="N39" s="7">
-        <v>19258</v>
+        <v>18068</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>18</v>
@@ -3274,7 +3277,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3292,37 +3295,37 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
       </c>
       <c r="I40" s="7">
-        <v>7206</v>
+        <v>6354</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
       </c>
       <c r="N40" s="7">
-        <v>7206</v>
+        <v>6354</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,46 +3337,46 @@
         <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>14637</v>
+        <v>13732</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
       </c>
       <c r="I41" s="7">
-        <v>22984</v>
+        <v>20764</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M41" s="7">
         <v>53</v>
       </c>
       <c r="N41" s="7">
-        <v>37621</v>
+        <v>34496</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,37 +3397,37 @@
         <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,16 +3439,16 @@
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>860</v>
+        <v>808</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3460,22 +3463,22 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>860</v>
+        <v>808</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,46 +3490,46 @@
         <v>8</v>
       </c>
       <c r="D44" s="7">
-        <v>6271</v>
+        <v>5926</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
       </c>
       <c r="I44" s="7">
-        <v>2023</v>
+        <v>1819</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
       </c>
       <c r="N44" s="7">
-        <v>8293</v>
+        <v>7745</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3541,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="7">
-        <v>21767</v>
+        <v>20466</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>18</v>
@@ -3553,7 +3556,7 @@
         <v>50</v>
       </c>
       <c r="I45" s="7">
-        <v>32835</v>
+        <v>29525</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>18</v>
@@ -3568,7 +3571,7 @@
         <v>76</v>
       </c>
       <c r="N45" s="7">
-        <v>54602</v>
+        <v>49991</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>18</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3600,7 +3603,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3615,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3630,7 +3633,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,46 +3645,46 @@
         <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>1696</v>
+        <v>1414</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H47" s="7">
         <v>11</v>
       </c>
       <c r="I47" s="7">
-        <v>7367</v>
+        <v>6113</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
       </c>
       <c r="N47" s="7">
-        <v>9063</v>
+        <v>7526</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,46 +3696,46 @@
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
       </c>
       <c r="I48" s="7">
-        <v>2147</v>
+        <v>1746</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
       </c>
       <c r="N48" s="7">
-        <v>2856</v>
+        <v>2347</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,46 +3747,46 @@
         <v>6</v>
       </c>
       <c r="D49" s="7">
-        <v>3784</v>
+        <v>3202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H49" s="7">
         <v>25</v>
       </c>
       <c r="I49" s="7">
-        <v>17196</v>
+        <v>14026</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M49" s="7">
         <v>31</v>
       </c>
       <c r="N49" s="7">
-        <v>20980</v>
+        <v>17228</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,46 +3798,46 @@
         <v>10</v>
       </c>
       <c r="D50" s="7">
-        <v>7593</v>
+        <v>6358</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H50" s="7">
         <v>13</v>
       </c>
       <c r="I50" s="7">
-        <v>10456</v>
+        <v>7699</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M50" s="7">
         <v>23</v>
       </c>
       <c r="N50" s="7">
-        <v>18049</v>
+        <v>14057</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3849,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="7">
-        <v>13782</v>
+        <v>11575</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>18</v>
@@ -3861,7 +3864,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="7">
-        <v>37166</v>
+        <v>29584</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>18</v>
@@ -3876,7 +3879,7 @@
         <v>71</v>
       </c>
       <c r="N51" s="7">
-        <v>50948</v>
+        <v>41159</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>18</v>
@@ -3899,46 +3902,46 @@
         <v>6</v>
       </c>
       <c r="D52" s="7">
-        <v>2598</v>
+        <v>2478</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
       </c>
       <c r="I52" s="7">
-        <v>14514</v>
+        <v>13030</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M52" s="7">
         <v>31</v>
       </c>
       <c r="N52" s="7">
-        <v>17112</v>
+        <v>15508</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,46 +3953,46 @@
         <v>55</v>
       </c>
       <c r="D53" s="7">
-        <v>36835</v>
+        <v>34330</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H53" s="7">
         <v>158</v>
       </c>
       <c r="I53" s="7">
-        <v>85786</v>
+        <v>77759</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M53" s="7">
         <v>213</v>
       </c>
       <c r="N53" s="7">
-        <v>122621</v>
+        <v>112089</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,46 +4004,46 @@
         <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H54" s="7">
         <v>8</v>
       </c>
       <c r="I54" s="7">
-        <v>4758</v>
+        <v>4102</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M54" s="7">
         <v>9</v>
       </c>
       <c r="N54" s="7">
-        <v>5467</v>
+        <v>4703</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,46 +4055,46 @@
         <v>12</v>
       </c>
       <c r="D55" s="7">
-        <v>7479</v>
+        <v>6575</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H55" s="7">
         <v>35</v>
       </c>
       <c r="I55" s="7">
-        <v>22092</v>
+        <v>18412</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M55" s="7">
         <v>47</v>
       </c>
       <c r="N55" s="7">
-        <v>29572</v>
+        <v>24987</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,46 +4106,46 @@
         <v>37</v>
       </c>
       <c r="D56" s="7">
-        <v>25273</v>
+        <v>23029</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H56" s="7">
         <v>37</v>
       </c>
       <c r="I56" s="7">
-        <v>22410</v>
+        <v>18678</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M56" s="7">
         <v>74</v>
       </c>
       <c r="N56" s="7">
-        <v>47683</v>
+        <v>41706</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,7 +4157,7 @@
         <v>111</v>
       </c>
       <c r="D57" s="7">
-        <v>72894</v>
+        <v>67012</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>18</v>
@@ -4169,7 +4172,7 @@
         <v>263</v>
       </c>
       <c r="I57" s="7">
-        <v>149561</v>
+        <v>131981</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>18</v>
@@ -4184,7 +4187,7 @@
         <v>374</v>
       </c>
       <c r="N57" s="7">
-        <v>222455</v>
+        <v>198993</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>18</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
